--- a/PWM_Values.xlsx
+++ b/PWM_Values.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\SysEmbedded8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02DACA5-13AB-47EC-A821-4C848041DAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32196" yWindow="-7236" windowWidth="31608" windowHeight="19452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>Gamme</t>
   </si>
@@ -50,19 +36,19 @@
     <t>Nclk</t>
   </si>
   <si>
-    <t>Nclk réel</t>
+    <t xml:space="preserve">Nclk réel</t>
   </si>
   <si>
-    <t>Frequence réelle</t>
+    <t xml:space="preserve">Frequence réelle</t>
   </si>
   <si>
-    <t>Delta f</t>
+    <t xml:space="preserve">Delta f</t>
   </si>
   <si>
-    <t>Soit en %</t>
+    <t xml:space="preserve">Soit en %</t>
   </si>
   <si>
-    <t>Diff max</t>
+    <t xml:space="preserve">Diff max</t>
   </si>
   <si>
     <t>Do</t>
@@ -107,7 +93,7 @@
     <t xml:space="preserve">A encoder </t>
   </si>
   <si>
-    <t>Variation maximale !</t>
+    <t xml:space="preserve">Variation maximale !</t>
   </si>
   <si>
     <t>Tclk</t>
@@ -116,29 +102,20 @@
     <t>ClkDivider</t>
   </si>
   <si>
-    <t>Volume par pas de 0.5%</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t xml:space="preserve">Volume par pas de 0.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -169,23 +146,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -206,8 +183,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -410,64 +670,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView topLeftCell="A69" zoomScale="100" workbookViewId="0">
+      <selection activeCell="R62" activeCellId="0" sqref="R62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col customWidth="1" min="4" max="4" width="10.5703125"/>
+    <col customWidth="1" min="6" max="6" width="12.5703125"/>
+    <col customWidth="1" min="9" max="9" width="16.42578125"/>
+    <col customWidth="1" min="10" max="10" style="1" width="15.140625"/>
+    <col customWidth="1" min="11" max="11" width="11.42578125"/>
+    <col customWidth="1" min="12" max="12" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,481 +733,481 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>65.41</v>
+        <v>65.409999999999997</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" si="0">1/D2</f>
-        <v>1.5288182235132244E-2</v>
+        <v>0.015288182235132244</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G33" si="1">F2/$C$76</f>
         <v>764409.1117566122</v>
       </c>
       <c r="H2" s="3">
-        <f>ROUND(G2,0)</f>
+        <f t="shared" ref="H2:H33" si="2">ROUND(G2,0)</f>
         <v>764409</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="2">1/(H2*$C$76)</f>
+        <f t="shared" ref="I2:I33" si="3">1/(H2*$C$76)</f>
         <v>65.410009562943401</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J33" si="3">D2-I2</f>
-        <v>-9.5629434042621142E-6</v>
+        <f t="shared" ref="J2:J33" si="4">D2-I2</f>
+        <v>-9.5629434042621142e-06</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="4">((D2-ABS(J2))/D2)*100</f>
+        <f t="shared" ref="K2:K33" si="5">((D2-ABS(J2))/D2)*100</f>
         <v>99.999985379997852</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="5">100-K2</f>
-        <v>1.4620002147580635E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L2:L33" si="6">100-K2</f>
+        <v>1.4620002147580635e-05</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>69.3</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1.443001443001443E-2</v>
+        <v>0.01443001443001443</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>721500.72150072153</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H33" si="6">ROUND(G3,0)</f>
+        <f t="shared" si="2"/>
         <v>721501</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69.299973250210329</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6749789668656376E-5</v>
+        <f t="shared" si="4"/>
+        <v>2.6749789668656376e-05</v>
       </c>
       <c r="K3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.999961400014897</v>
       </c>
       <c r="L3">
-        <f t="shared" si="5"/>
-        <v>3.8599985103360268E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>3.8599985103360268e-05</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>73.42</v>
+        <v>73.420000000000002</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.3620266957232362E-2</v>
+        <v>0.013620266957232362</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>681013.34786161804</v>
       </c>
       <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>681013</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>73.420037502955154</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.7502955152035611e-05</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>99.999948919973917</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="6"/>
-        <v>681013</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>73.420037502955154</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.7502955152035611E-5</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="4"/>
-        <v>99.999948919973917</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>5.1080026082672703E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.1080026082672703e-05</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>77.78</v>
+        <v>77.780000000000001</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.2856775520699408E-2</v>
+        <v>0.012856775520699408</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>642838.77603497042</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>642839</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>77.779972901457441</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7098542560111127e-05</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>99.999965160012138</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="6"/>
-        <v>642839</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>77.779972901457441</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7098542560111127E-5</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>99.999965160012138</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>3.4839987861801092E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.4839987861801092e-05</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>82.41</v>
+        <v>82.409999999999997</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1.2134449702705982E-2</v>
+        <v>0.012134449702705982</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>606722.48513529915</v>
       </c>
       <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>606722</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>82.410065895088692</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5895088695810955e-05</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>99.999920039936057</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="6"/>
-        <v>606722</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>82.410065895088692</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.5895088695810955E-5</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>99.999920039936057</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>7.9960063942507986E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.9960063942507986e-05</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>87.31</v>
+        <v>87.310000000000002</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.1453441759248654E-2</v>
+        <v>0.011453441759248654</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>572672.08796243265</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>572672</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>87.310013410818058</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3410818056058815e-05</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>99.999984639997635</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="6"/>
-        <v>572672</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>87.310013410818058</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.3410818056058815E-5</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>99.999984639997635</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>1.5360002365127912E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5360002365127912e-05</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>92.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.0810810810810811E-2</v>
+        <v>0.010810810810810811</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>540540.54054054059</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>540541</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>92.499921375066833</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>7.8624933166793198e-05</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>99.999915000072249</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="6"/>
-        <v>540541</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>92.499921375066833</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="3"/>
-        <v>7.8624933166793198E-5</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>99.999915000072249</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>8.4999927750573079E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.4999927750573079e-05</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>98</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.020408163265306E-2</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>510204.08163265302</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>510204</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>98.000015680002505</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.5680002505291668e-05</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>99.99998399999744</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="6"/>
-        <v>510204</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>98.000015680002505</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5680002505291668E-5</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>99.99998399999744</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>1.6000002560190296E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.6000002560190296e-05</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>103.83</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>9.6311278050659737E-3</v>
+        <v>0.0096311278050659737</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>481556.39025329868</v>
       </c>
       <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>481556</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>103.83008414390019</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>-8.4143900195954302e-05</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>99.99991895993432</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="6"/>
-        <v>481556</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>103.83008414390019</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="3"/>
-        <v>-8.4143900195954302E-5</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>99.99991895993432</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>8.1040065680326734E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.1040065680326734e-05</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>110</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>9.0909090909090905E-3</v>
+        <v>0.0090909090909090905</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>454545.45454545453</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>454545</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>110.00011000011</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00011000010999850929</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>99.999899999899995</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="6"/>
-        <v>454545</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>110.00011000011</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1000010999850929E-4</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>99.999899999899995</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>1.0000010000510429E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00010000010000510429</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>116.54</v>
+        <v>116.54000000000001</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>8.58074480864939E-3</v>
+        <v>0.00858074480864939</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>429037.24043246947</v>
       </c>
       <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>429037</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>116.54006530905259</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5309052587281258e-05</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>99.999943959968604</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="6"/>
-        <v>429037</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>116.54006530905259</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.5309052587281258E-5</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>99.999943959968604</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>5.604003139580982E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.604003139580982e-05</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>123.47</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>8.0991333927269791E-3</v>
+        <v>0.0080991333927269791</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>404956.66963634896</v>
       </c>
       <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>404957</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>123.46989927325617</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00010072674382399782</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>99.999918420066564</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="6"/>
-        <v>404957</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>123.46989927325617</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0072674382399782E-4</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>99.999918420066564</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>8.157993343615999E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.157993343615999e-05</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -957,481 +1215,481 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>130.81</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>7.6446754835257239E-3</v>
+        <v>0.0076446754835257239</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>382233.77417628618</v>
       </c>
       <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>382234</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>130.80992271749767</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>7.728250233185463e-05</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>99.999940920034916</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="6"/>
-        <v>382234</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>130.80992271749767</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>7.728250233185463E-5</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>99.999940920034916</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>5.9079965083697061E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.9079965083697061e-05</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>138.59</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>7.2155278158597298E-3</v>
+        <v>0.0072155278158597298</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>360776.39079298649</v>
       </c>
       <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>360776</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>138.59015012085061</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00015012085060561731</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>99.999891679882666</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="6"/>
-        <v>360776</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>138.59015012085061</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5012085060561731E-4</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>99.999891679882666</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>1.0832011733441504E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00010832011733441504</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>146.83000000000001</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>6.8105972893822784E-3</v>
+        <v>0.0068105972893822784</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>340529.86446911393</v>
       </c>
       <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>340530</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>146.82994156168326</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8438316756337372e-05</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>99.999960200015821</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="6"/>
-        <v>340530</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>146.82994156168326</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8438316756337372E-5</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>99.999960200015821</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>3.9799984179467174E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.9799984179467174e-05</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>155.56</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>6.428387760349704E-3</v>
+        <v>0.006428387760349704</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>321419.38801748521</v>
       </c>
       <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>321419</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>155.56018779225869</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00018779225868570393</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>99.999879279854269</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="6"/>
-        <v>321419</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>155.56018779225869</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.8779225868570393E-4</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>99.999879279854269</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>1.2072014573050183E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00012072014573050183</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>164.81</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>6.0675929858625081E-3</v>
+        <v>0.0060675929858625081</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>303379.64929312537</v>
       </c>
       <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>303380</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>164.80980947986023</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00019052013976761373</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>99.999884400133638</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="6"/>
-        <v>303380</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>164.80980947986023</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9052013976761373E-4</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>99.999884400133638</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>1.1559986636200392E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00011559986636200392</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>174.61</v>
+        <v>174.61000000000001</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>5.727048851726705E-3</v>
+        <v>0.005727048851726705</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>286352.44258633524</v>
       </c>
       <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>286352</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>174.61026987763313</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00026987763311581148</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>99.999845439761117</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="6"/>
-        <v>286352</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>174.61026987763313</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.6987763311581148E-4</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>99.999845439761117</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>1.5456023888305026E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00015456023888305026</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>185</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>5.4054054054054057E-3</v>
+        <v>0.0054054054054054057</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>270270.2702702703</v>
       </c>
       <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>270270</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>185.00018500018498</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00018500018498457393</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>99.999899999900009</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="6"/>
-        <v>270270</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>185.00018500018498</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.8500018498457393E-4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>99.999899999900009</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>1.0000009999089343E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00010000009999089343</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>196</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>5.1020408163265302E-3</v>
+        <v>0.0051020408163265302</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>255102.04081632651</v>
       </c>
       <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>255102</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>196.00003136000501</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.1360005010583336e-05</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>99.99998399999744</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="6"/>
-        <v>255102</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>196.00003136000501</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.1360005010583336E-5</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>99.99998399999744</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>1.6000002560190296E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.6000002560190296e-05</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>207.65</v>
+        <v>207.65000000000001</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>4.8157958102576452E-3</v>
+        <v>0.0048157958102576452</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>240789.79051288226</v>
       </c>
       <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>240790</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>207.64981934465715</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00018065534285938156</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>99.999913000075679</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="6"/>
-        <v>240790</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>207.64981934465715</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="3"/>
-        <v>1.8065534285938156E-4</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>99.999913000075679</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>8.6999924320707578E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.6999924320707578e-05</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>220</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>4.5454545454545452E-3</v>
+        <v>0.0045454545454545452</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>227272.72727272726</v>
       </c>
       <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>227273</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>219.99973600031677</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00026399968322721179</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>99.999880000143989</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>227273</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>219.99973600031677</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6399968322721179E-4</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>99.999880000143989</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>1.199998560110771E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0001199998560110771</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>233.08</v>
+        <v>233.08000000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4.290372404324695E-3</v>
+        <v>0.004290372404324695</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>214518.62021623473</v>
       </c>
       <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>214519</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>233.07958735589855</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00041264410145913644</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>99.999822960313438</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>214519</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>233.07958735589855</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="3"/>
-        <v>4.1264410145913644E-4</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>99.999822960313438</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>1.7703968656235247E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00017703968656235247</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>246.94</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>4.0495666963634895E-3</v>
+        <v>0.0040495666963634895</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>202478.33481817448</v>
       </c>
       <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>202478</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>246.94040834065925</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00040834065924855167</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>99.999834639726544</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="6"/>
-        <v>202478</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>246.94040834065925</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="3"/>
-        <v>-4.0834065924855167E-4</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>99.999834639726544</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>1.6536027345637194E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00016536027345637194</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1439,374 +1697,374 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>261.63</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>3.8221916446890647E-3</v>
+        <v>0.0038221916446890647</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>191109.58223445324</v>
       </c>
       <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>191110</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>261.62942807807025</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00057192192974753198</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>99.999781400477872</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="6"/>
-        <v>191110</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>261.62942807807025</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="3"/>
-        <v>5.7192192974753198E-4</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>99.999781400477872</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>2.1859952212821554E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00021859952212821554</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>277.18</v>
+        <v>277.18000000000001</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>3.6077639079298649E-3</v>
+        <v>0.0036077639079298649</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>180388.19539649325</v>
       </c>
       <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>180388</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>277.18030024170122</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00030024170121123461</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>99.999891679882666</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="6"/>
-        <v>180388</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>277.18030024170122</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.0024170121123461E-4</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>99.999891679882666</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>1.0832011733441504E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00010832011733441504</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>293.66000000000003</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>3.4052986446911392E-3</v>
+        <v>0.0034052986446911392</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>170264.93223455697</v>
       </c>
       <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>170265</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>293.65988312336651</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00011687663351267474</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>99.999960200015821</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="6"/>
-        <v>170265</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>293.65988312336651</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1687663351267474E-4</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>99.999960200015821</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>3.9799984179467174E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.9799984179467174e-05</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>311.13</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>3.2140905730723493E-3</v>
+        <v>0.0032140905730723493</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>160704.52865361745</v>
       </c>
       <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>160705</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>311.12908745838649</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00091254161350207141</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>99.999706700860244</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="6"/>
-        <v>160705</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>311.12908745838649</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="3"/>
-        <v>9.1254161350207141E-4</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>99.999706700860244</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>2.9329913975573163E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00029329913975573163</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>329.63</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>3.0337044565118465E-3</v>
+        <v>0.0030337044565118465</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>151685.22282559233</v>
       </c>
       <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>151685</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>329.63048422718134</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00048422718134588649</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>99.999853099784204</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="6"/>
-        <v>151685</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>329.63048422718134</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="3"/>
-        <v>-4.8422718134588649E-4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>99.999853099784204</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>1.4690021579610857E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00014690021579610857</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>349.23</v>
+        <v>349.23000000000002</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>2.8634424304899348E-3</v>
+        <v>0.0028634424304899348</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>143172.12152449673</v>
       </c>
       <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>143172</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>349.23029642667558</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.00029642667556117885</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>99.999915119927962</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="6"/>
-        <v>143172</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>349.23029642667558</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.9642667556117885E-4</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>99.999915119927962</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>8.4880072037663012E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.4880072037663012e-05</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>369.99</v>
+        <v>369.99000000000001</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>2.7027757506959647E-3</v>
+        <v>0.0027027757506959647</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>135138.78753479823</v>
       </c>
       <c r="H32" s="3">
+        <f t="shared" si="2"/>
+        <v>135139</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>369.98941830263652</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.00058169736348645529</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>99.999842780247178</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="6"/>
-        <v>135139</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>369.98941830263652</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8169736348645529E-4</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>99.999842780247178</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>1.5721975282190215E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00015721975282190215</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>392</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>2.5510204081632651E-3</v>
+        <v>0.0025510204081632651</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>127551.02040816325</v>
       </c>
       <c r="H33" s="3">
+        <f t="shared" si="2"/>
+        <v>127551</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>392.00006272001002</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.2720010021166672e-05</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>99.99998399999744</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
-        <v>127551</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>392.00006272001002</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.2720010021166672E-5</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>99.99998399999744</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>1.6000002560190296E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.6000002560190296e-05</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>415.3</v>
+        <v>415.30000000000001</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="7">1/D34</f>
-        <v>2.4078979051288226E-3</v>
+        <f t="shared" ref="F34:F73" si="7">1/D34</f>
+        <v>0.0024078979051288226</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G65" si="8">F34/$C$76</f>
+        <f t="shared" ref="G34:G73" si="8">F34/$C$76</f>
         <v>120394.89525644113</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H65" si="9">ROUND(G34,0)</f>
+        <f t="shared" ref="H34:H73" si="9">ROUND(G34,0)</f>
         <v>120395</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I65" si="10">1/(H34*$C$76)</f>
+        <f t="shared" ref="I34:I73" si="10">1/(H34*$C$76)</f>
         <v>415.29963868931429</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J65" si="11">D34-I34</f>
-        <v>3.6131068571876312E-4</v>
+        <f t="shared" ref="J34:J73" si="11">D34-I34</f>
+        <v>0.00036131068571876312</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="12">((D34-ABS(J34))/D34)*100</f>
+        <f t="shared" ref="K34:K73" si="12">((D34-ABS(J34))/D34)*100</f>
         <v>99.999913000075679</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="13">100-K34</f>
-        <v>8.6999924320707578E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L34:L73" si="13">100-K34</f>
+        <v>8.6999924320707578e-05</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>440</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
-        <v>2.2727272727272726E-3</v>
+        <v>0.0022727272727272726</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
@@ -1822,7 +2080,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4080045055493429E-3</v>
+        <v>-0.0014080045055493429</v>
       </c>
       <c r="K35">
         <f t="shared" si="12"/>
@@ -1830,23 +2088,23 @@
       </c>
       <c r="L35">
         <f t="shared" si="13"/>
-        <v>3.200010239936546E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0003200010239936546</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>466.16</v>
+        <v>466.16000000000003</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
-        <v>2.1451862021623475E-3</v>
+        <v>0.0021451862021623475</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
@@ -1862,7 +2120,7 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3477656886493605E-3</v>
+        <v>-0.0013477656886493605</v>
       </c>
       <c r="K36">
         <f t="shared" si="12"/>
@@ -1870,23 +2128,23 @@
       </c>
       <c r="L36">
         <f t="shared" si="13"/>
-        <v>2.8912083590171278E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00028912083590171278</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>493.88</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
-        <v>2.0247833481817448E-3</v>
+        <v>0.0020247833481817448</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
@@ -1902,7 +2160,7 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" si="11"/>
-        <v>-8.1668131849710335E-4</v>
+        <v>-0.00081668131849710335</v>
       </c>
       <c r="K37">
         <f t="shared" si="12"/>
@@ -1910,10 +2168,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="13"/>
-        <v>1.6536027345637194E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00016536027345637194</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1921,14 +2179,14 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>523.25</v>
       </c>
       <c r="F38">
         <f t="shared" si="7"/>
-        <v>1.9111323459149545E-3</v>
+        <v>0.0019111323459149545</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
@@ -1944,7 +2202,7 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" si="11"/>
-        <v>2.0956078570861791E-3</v>
+        <v>0.0020956078570861791</v>
       </c>
       <c r="K38">
         <f t="shared" si="12"/>
@@ -1952,23 +2210,23 @@
       </c>
       <c r="L38">
         <f t="shared" si="13"/>
-        <v>4.0049839600442283E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00040049839600442283</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>554.37</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
-        <v>1.803849414650865E-3</v>
+        <v>0.001803849414650865</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="8"/>
@@ -1984,7 +2242,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" si="11"/>
-        <v>-2.8933830051300902E-3</v>
+        <v>-0.0028933830051300902</v>
       </c>
       <c r="K39">
         <f t="shared" si="12"/>
@@ -1992,23 +2250,23 @@
       </c>
       <c r="L39">
         <f t="shared" si="13"/>
-        <v>5.2192272401896389E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00052192272401896389</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>587.33000000000004</v>
       </c>
       <c r="F40">
         <f t="shared" si="7"/>
-        <v>1.7026203326920128E-3</v>
+        <v>0.0017026203326920128</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="8"/>
@@ -2024,7 +2282,7 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" si="11"/>
-        <v>-1.1476430438506213E-4</v>
+        <v>-0.00011476430438506213</v>
       </c>
       <c r="K40">
         <f t="shared" si="12"/>
@@ -2032,23 +2290,23 @@
       </c>
       <c r="L40">
         <f t="shared" si="13"/>
-        <v>1.954000381942933E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.954000381942933e-05</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>622.25</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
-        <v>1.6070711128967456E-3</v>
+        <v>0.0016070711128967456</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="8"/>
@@ -2064,7 +2322,7 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" si="11"/>
-        <v>3.4410234711685916E-3</v>
+        <v>0.0034410234711685916</v>
       </c>
       <c r="K41">
         <f t="shared" si="12"/>
@@ -2072,23 +2330,23 @@
       </c>
       <c r="L41">
         <f t="shared" si="13"/>
-        <v>5.5299694193422511E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00055299694193422511</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>659.26</v>
+        <v>659.25999999999999</v>
       </c>
       <c r="F42">
         <f t="shared" si="7"/>
-        <v>1.5168522282559232E-3</v>
+        <v>0.0015168522282559232</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="8"/>
@@ -2104,7 +2362,7 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" si="11"/>
-        <v>3.3777672297219397E-3</v>
+        <v>0.0033777672297219397</v>
       </c>
       <c r="K42">
         <f t="shared" si="12"/>
@@ -2112,23 +2370,23 @@
       </c>
       <c r="L42">
         <f t="shared" si="13"/>
-        <v>5.1235737488752875E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00051235737488752875</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>698.46</v>
+        <v>698.46000000000004</v>
       </c>
       <c r="F43">
         <f t="shared" si="7"/>
-        <v>1.4317212152449674E-3</v>
+        <v>0.0014317212152449674</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="8"/>
@@ -2144,7 +2402,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" si="11"/>
-        <v>-5.9285335112235771E-4</v>
+        <v>-0.00059285335112235771</v>
       </c>
       <c r="K43">
         <f t="shared" si="12"/>
@@ -2152,23 +2410,23 @@
       </c>
       <c r="L43">
         <f t="shared" si="13"/>
-        <v>8.4880072037663012E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.4880072037663012e-05</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>739.99</v>
+        <v>739.99000000000001</v>
       </c>
       <c r="F44">
         <f t="shared" si="7"/>
-        <v>1.3513696131028797E-3</v>
+        <v>0.0013513696131028797</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="8"/>
@@ -2184,7 +2442,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="11"/>
-        <v>-5.2640303101725294E-3</v>
+        <v>-0.0052640303101725294</v>
       </c>
       <c r="K44">
         <f t="shared" si="12"/>
@@ -2192,23 +2450,23 @@
       </c>
       <c r="L44">
         <f t="shared" si="13"/>
-        <v>7.1136506035429647E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00071136506035429647</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>783.99</v>
+        <v>783.99000000000001</v>
       </c>
       <c r="F45">
         <f t="shared" si="7"/>
-        <v>1.2755264735519586E-3</v>
+        <v>0.0012755264735519586</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="8"/>
@@ -2224,7 +2482,7 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" si="11"/>
-        <v>-3.9789262417571081E-3</v>
+        <v>-0.0039789262417571081</v>
       </c>
       <c r="K45">
         <f t="shared" si="12"/>
@@ -2232,23 +2490,23 @@
       </c>
       <c r="L45">
         <f t="shared" si="13"/>
-        <v>5.075225757593671E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0005075225757593671</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>830.61</v>
+        <v>830.61000000000001</v>
       </c>
       <c r="F46">
         <f t="shared" si="7"/>
-        <v>1.203934457808117E-3</v>
+        <v>0.001203934457808117</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="8"/>
@@ -2264,7 +2522,7 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" si="11"/>
-        <v>3.8236124725017362E-3</v>
+        <v>0.0038236124725017362</v>
       </c>
       <c r="K46">
         <f t="shared" si="12"/>
@@ -2272,23 +2530,23 @@
       </c>
       <c r="L46">
         <f t="shared" si="13"/>
-        <v>4.6033788089516747E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00046033788089516747</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>880</v>
       </c>
       <c r="F47">
         <f t="shared" si="7"/>
-        <v>1.1363636363636363E-3</v>
+        <v>0.0011363636363636363</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="8"/>
@@ -2304,7 +2562,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" si="11"/>
-        <v>-2.8160090110986857E-3</v>
+        <v>-0.0028160090110986857</v>
       </c>
       <c r="K47">
         <f t="shared" si="12"/>
@@ -2312,23 +2570,23 @@
       </c>
       <c r="L47">
         <f t="shared" si="13"/>
-        <v>3.200010239936546E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0003200010239936546</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>932.33</v>
+        <v>932.33000000000004</v>
       </c>
       <c r="F48">
         <f t="shared" si="7"/>
-        <v>1.0725815966449647E-3</v>
+        <v>0.0010725815966449647</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="8"/>
@@ -2344,7 +2602,7 @@
       </c>
       <c r="J48" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3878685039117045E-3</v>
+        <v>-0.0013878685039117045</v>
       </c>
       <c r="K48">
         <f t="shared" si="12"/>
@@ -2352,23 +2610,23 @@
       </c>
       <c r="L48">
         <f t="shared" si="13"/>
-        <v>1.4886022158577816E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00014886022158577816</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>987.77</v>
+        <v>987.76999999999998</v>
       </c>
       <c r="F49">
         <f t="shared" si="7"/>
-        <v>1.0123814248256173E-3</v>
+        <v>0.0010123814248256173</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="8"/>
@@ -2384,7 +2642,7 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3901894545824689E-3</v>
+        <v>-0.0013901894545824689</v>
       </c>
       <c r="K49">
         <f t="shared" si="12"/>
@@ -2392,10 +2650,10 @@
       </c>
       <c r="L49">
         <f t="shared" si="13"/>
-        <v>1.4074019809129368E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00014074019809129368</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2403,14 +2661,14 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>1046.5</v>
       </c>
       <c r="F50">
         <f t="shared" si="7"/>
-        <v>9.5556617295747726E-4</v>
+        <v>0.00095556617295747726</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="8"/>
@@ -2426,7 +2684,7 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" si="11"/>
-        <v>-6.7604336722979497E-3</v>
+        <v>-0.0067604336722979497</v>
       </c>
       <c r="K50">
         <f t="shared" si="12"/>
@@ -2434,23 +2692,23 @@
       </c>
       <c r="L50">
         <f t="shared" si="13"/>
-        <v>6.460041731770616E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0006460041731770616</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>1108.73</v>
       </c>
       <c r="F51">
         <f t="shared" si="7"/>
-        <v>9.019328420805787E-4</v>
+        <v>0.0009019328420805787</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="8"/>
@@ -2466,7 +2724,7 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" si="11"/>
-        <v>8.7990331951459666E-3</v>
+        <v>0.0087990331951459666</v>
       </c>
       <c r="K51">
         <f t="shared" si="12"/>
@@ -2474,23 +2732,23 @@
       </c>
       <c r="L51">
         <f t="shared" si="13"/>
-        <v>7.9361370171682211E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00079361370171682211</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>1174.6600000000001</v>
       </c>
       <c r="F52">
         <f t="shared" si="7"/>
-        <v>8.5131016634600639E-4</v>
+        <v>0.00085131016634600639</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="8"/>
@@ -2506,7 +2764,7 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" si="11"/>
-        <v>1.356857585869875E-2</v>
+        <v>0.01356857585869875</v>
       </c>
       <c r="K52">
         <f t="shared" si="12"/>
@@ -2514,23 +2772,23 @@
       </c>
       <c r="L52">
         <f t="shared" si="13"/>
-        <v>1.1551066571371393E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0011551066571371393</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>1244.51</v>
       </c>
       <c r="F53">
         <f t="shared" si="7"/>
-        <v>8.0352909980634948E-4</v>
+        <v>0.00080352909980634948</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="8"/>
@@ -2546,7 +2804,7 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" si="11"/>
-        <v>-1.4093986459556618E-2</v>
+        <v>-0.014093986459556618</v>
       </c>
       <c r="K53">
         <f t="shared" si="12"/>
@@ -2554,23 +2812,23 @@
       </c>
       <c r="L53">
         <f t="shared" si="13"/>
-        <v>1.1324928252491873E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0011324928252491873</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>1318.51</v>
       </c>
       <c r="F54">
         <f t="shared" si="7"/>
-        <v>7.5843186627329339E-4</v>
+        <v>0.00075843186627329339</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="8"/>
@@ -2586,7 +2844,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" si="11"/>
-        <v>1.4140077000092788E-2</v>
+        <v>0.014140077000092788</v>
       </c>
       <c r="K54">
         <f t="shared" si="12"/>
@@ -2594,23 +2852,23 @@
       </c>
       <c r="L54">
         <f t="shared" si="13"/>
-        <v>1.0724284988441468E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0010724284988441468</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>1396.91</v>
+        <v>1396.9100000000001</v>
       </c>
       <c r="F55">
         <f t="shared" si="7"/>
-        <v>7.1586573222326411E-4</v>
+        <v>0.00071586573222326411</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="8"/>
@@ -2626,7 +2884,7 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" si="11"/>
-        <v>-1.118570670223562E-2</v>
+        <v>-0.01118570670223562</v>
       </c>
       <c r="K55">
         <f t="shared" si="12"/>
@@ -2634,23 +2892,23 @@
       </c>
       <c r="L55">
         <f t="shared" si="13"/>
-        <v>8.0074641188332407E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00080074641188332407</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>1479.98</v>
       </c>
       <c r="F56">
         <f t="shared" si="7"/>
-        <v>6.7568480655143986E-4</v>
+        <v>0.00067568480655143986</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="8"/>
@@ -2666,7 +2924,7 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" si="11"/>
-        <v>-1.0528060620345059E-2</v>
+        <v>-0.010528060620345059</v>
       </c>
       <c r="K56">
         <f t="shared" si="12"/>
@@ -2674,23 +2932,23 @@
       </c>
       <c r="L56">
         <f t="shared" si="13"/>
-        <v>7.1136506035429647E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.00071136506035429647</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>1567.98</v>
       </c>
       <c r="F57">
         <f t="shared" si="7"/>
-        <v>6.3776323677597932E-4</v>
+        <v>0.00063776323677597932</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="8"/>
@@ -2706,7 +2964,7 @@
       </c>
       <c r="J57" s="1">
         <f t="shared" si="11"/>
-        <v>-7.9578524835142161E-3</v>
+        <v>-0.0079578524835142161</v>
       </c>
       <c r="K57">
         <f t="shared" si="12"/>
@@ -2714,23 +2972,23 @@
       </c>
       <c r="L57">
         <f t="shared" si="13"/>
-        <v>5.075225757593671E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0005075225757593671</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>1661.22</v>
       </c>
       <c r="F58">
         <f t="shared" si="7"/>
-        <v>6.0196722890405849E-4</v>
+        <v>0.00060196722890405849</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="8"/>
@@ -2746,7 +3004,7 @@
       </c>
       <c r="J58" s="1">
         <f t="shared" si="11"/>
-        <v>-1.9949498305550151E-2</v>
+        <v>-0.019949498305550151</v>
       </c>
       <c r="K58">
         <f t="shared" si="12"/>
@@ -2754,23 +3012,23 @@
       </c>
       <c r="L58">
         <f t="shared" si="13"/>
-        <v>1.2008944213022232E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0012008944213022232</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>1760</v>
       </c>
       <c r="F59">
         <f t="shared" si="7"/>
-        <v>5.6818181818181815E-4</v>
+        <v>0.00056818181818181815</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="8"/>
@@ -2786,7 +3044,7 @@
       </c>
       <c r="J59" s="1">
         <f t="shared" si="11"/>
-        <v>-5.6320180221973715E-3</v>
+        <v>-0.0056320180221973715</v>
       </c>
       <c r="K59">
         <f t="shared" si="12"/>
@@ -2794,23 +3052,23 @@
       </c>
       <c r="L59">
         <f t="shared" si="13"/>
-        <v>3.200010239936546E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0003200010239936546</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>1864.66</v>
+        <v>1864.6600000000001</v>
       </c>
       <c r="F60">
         <f t="shared" si="7"/>
-        <v>5.3629079832248237E-4</v>
+        <v>0.00053629079832248237</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="8"/>
@@ -2826,7 +3084,7 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" si="11"/>
-        <v>3.1993287339219023E-2</v>
+        <v>0.031993287339219023</v>
       </c>
       <c r="K60">
         <f t="shared" si="12"/>
@@ -2834,23 +3092,23 @@
       </c>
       <c r="L60">
         <f t="shared" si="13"/>
-        <v>1.7157705608070728E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0017157705608070728</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>1975.53</v>
       </c>
       <c r="F61">
         <f t="shared" si="7"/>
-        <v>5.0619327471615211E-4</v>
+        <v>0.00050619327471615211</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="8"/>
@@ -2866,7 +3124,7 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" si="11"/>
-        <v>2.6246542868648248E-2</v>
+        <v>0.026246542868648248</v>
       </c>
       <c r="K61">
         <f t="shared" si="12"/>
@@ -2874,10 +3132,10 @@
       </c>
       <c r="L61">
         <f t="shared" si="13"/>
-        <v>1.3285823484636694E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0013285823484636694</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2885,14 +3143,14 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>2093</v>
       </c>
       <c r="F62">
         <f t="shared" si="7"/>
-        <v>4.7778308647873863E-4</v>
+        <v>0.00047778308647873863</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="8"/>
@@ -2908,7 +3166,7 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" si="11"/>
-        <v>-1.3520867344595899E-2</v>
+        <v>-0.013520867344595899</v>
       </c>
       <c r="K62">
         <f t="shared" si="12"/>
@@ -2916,23 +3174,23 @@
       </c>
       <c r="L62">
         <f t="shared" si="13"/>
-        <v>6.460041731770616E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0006460041731770616</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>2217.46</v>
       </c>
       <c r="F63">
         <f t="shared" si="7"/>
-        <v>4.5096642104028935E-4</v>
+        <v>0.00045096642104028935</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="8"/>
@@ -2948,7 +3206,7 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" si="11"/>
-        <v>-3.1573532020502171E-2</v>
+        <v>-0.031573532020502171</v>
       </c>
       <c r="K63">
         <f t="shared" si="12"/>
@@ -2956,23 +3214,23 @@
       </c>
       <c r="L63">
         <f t="shared" si="13"/>
-        <v>1.4238602734906181E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0014238602734906181</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>2349.3200000000002</v>
       </c>
       <c r="F64">
         <f t="shared" si="7"/>
-        <v>4.256550831730032E-4</v>
+        <v>0.0004256550831730032</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="8"/>
@@ -2988,7 +3246,7 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" si="11"/>
-        <v>2.7137151717397501E-2</v>
+        <v>0.027137151717397501</v>
       </c>
       <c r="K64">
         <f t="shared" si="12"/>
@@ -2996,23 +3254,23 @@
       </c>
       <c r="L64">
         <f t="shared" si="13"/>
-        <v>1.1551066571371393E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0011551066571371393</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>2489.02</v>
       </c>
       <c r="F65">
         <f t="shared" si="7"/>
-        <v>4.0176454990317474E-4</v>
+        <v>0.00040176454990317474</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="8"/>
@@ -3028,7 +3286,7 @@
       </c>
       <c r="J65" s="1">
         <f t="shared" si="11"/>
-        <v>-2.8187972919113236E-2</v>
+        <v>-0.028187972919113236</v>
       </c>
       <c r="K65">
         <f t="shared" si="12"/>
@@ -3036,359 +3294,359 @@
       </c>
       <c r="L65">
         <f t="shared" si="13"/>
-        <v>1.1324928252491873E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0011324928252491873</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>2637.02</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F73" si="14">1/D66</f>
-        <v>3.792159331366467E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.0003792159331366467</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G97" si="15">F66/$C$76</f>
+        <f t="shared" si="8"/>
         <v>18960.796656832335</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H97" si="16">ROUND(G66,0)</f>
+        <f t="shared" si="9"/>
         <v>18961</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="17">1/(H66*$C$76)</f>
+        <f t="shared" si="10"/>
         <v>2636.9917198459998</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" ref="J66:J97" si="18">D66-I66</f>
-        <v>2.8280154000185576E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.028280154000185576</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K97" si="19">((D66-ABS(J66))/D66)*100</f>
+        <f t="shared" si="12"/>
         <v>99.998927571501156</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L97" si="20">100-K66</f>
-        <v>1.0724284988441468E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0010724284988441468</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>2793.83</v>
+        <v>2793.8299999999999</v>
       </c>
       <c r="F67">
-        <f t="shared" si="14"/>
-        <v>3.5793158495685138E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00035793158495685138</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>17896.579247842568</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17897</v>
       </c>
       <c r="I67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2793.7643180421301</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="18"/>
-        <v>6.5681957869855978E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.065681957869855978</v>
       </c>
       <c r="K67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.99764903527165</v>
       </c>
       <c r="L67">
-        <f t="shared" si="20"/>
-        <v>2.3509647283503909E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0023509647283503909</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>2959.96</v>
       </c>
       <c r="F68">
-        <f t="shared" si="14"/>
-        <v>3.3784240327571993E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00033784240327571993</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>16892.120163785996</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16892</v>
       </c>
       <c r="I68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>2959.9810561212407</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="18"/>
-        <v>-2.1056121240690118E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.021056121240690118</v>
       </c>
       <c r="K68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.999288634939646</v>
       </c>
       <c r="L68">
-        <f t="shared" si="20"/>
-        <v>7.1136506035429647E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.00071136506035429647</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>3135.96</v>
       </c>
       <c r="F69">
-        <f t="shared" si="14"/>
-        <v>3.1888161838798966E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00031888161838798966</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>15944.080919399483</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>15944</v>
       </c>
       <c r="I69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3135.9759157049671</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="18"/>
-        <v>-1.5915704967028432E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.015915704967028432</v>
       </c>
       <c r="K69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.999492477424241</v>
       </c>
       <c r="L69">
-        <f t="shared" si="20"/>
-        <v>5.075225757593671E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0005075225757593671</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>3322.44</v>
+        <v>3322.4400000000001</v>
       </c>
       <c r="F70">
-        <f t="shared" si="14"/>
-        <v>3.0098361445202924E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00030098361445202924</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>15049.180722601463</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>15049</v>
       </c>
       <c r="I70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3322.4798989966112</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="18"/>
-        <v>-3.9898996611100301E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.039898996611100301</v>
       </c>
       <c r="K70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.998799105578698</v>
       </c>
       <c r="L70">
-        <f t="shared" si="20"/>
-        <v>1.2008944213022232E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0012008944213022232</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>3520</v>
       </c>
       <c r="F71">
-        <f t="shared" si="14"/>
-        <v>2.8409090909090908E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00028409090909090908</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>14204.545454545454</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>14205</v>
       </c>
       <c r="I71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3519.8873636043645</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0.11263639563549077</v>
       </c>
       <c r="K71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.996800102396719</v>
       </c>
       <c r="L71">
-        <f t="shared" si="20"/>
-        <v>3.1998976032809878E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0031998976032809878</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>3729.31</v>
+        <v>3729.3099999999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="14"/>
-        <v>2.6814611818272015E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00026814611818272015</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>13407.305909136006</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>13407</v>
       </c>
       <c r="I72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3729.395092116059</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="18"/>
-        <v>-8.5092116059058753E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.085092116059058753</v>
       </c>
       <c r="K72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.99771828793908</v>
       </c>
       <c r="L72">
-        <f t="shared" si="20"/>
-        <v>2.2817120609204267E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0022817120609204267</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>3951.07</v>
+        <v>3951.0700000000002</v>
       </c>
       <c r="F73">
-        <f t="shared" si="14"/>
-        <v>2.5309599678061893E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.00025309599678061893</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>12654.799839030946</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>12655</v>
       </c>
       <c r="I73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>3951.0075069142626</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="18"/>
-        <v>6.2493085737514775E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.062493085737514775</v>
       </c>
       <c r="K73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>99.99841832501734</v>
       </c>
       <c r="L73">
-        <f t="shared" si="20"/>
-        <v>1.5816749826598198E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.0015816749826598198</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>50000000</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L75">
         <f>MAX(L2:L73)</f>
-        <v>3.1998976032809878E-3</v>
+        <v>0.0031998976032809878</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="B76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C76">
         <f>1/(C75/C77)</f>
-        <v>2E-8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2e-08</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="B77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3398,21 +3656,29 @@
         <v>6327.5</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="E81">
+        <f>(F72-F73)*1000000</f>
+        <v>15.050121402101222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B62:B73"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B14:B25"/>
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="B50:B61"/>
+    <mergeCell ref="B62:B73"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>